--- a/mediii.xlsx
+++ b/mediii.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,18 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="18" t="n">

--- a/mediii.xlsx
+++ b/mediii.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,8 +841,8 @@
       <c r="I14" s="16" t="n"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="22" t="n">
-        <v>5</v>
+      <c r="A15" s="20" t="n">
+        <v>3.285714285714286</v>
       </c>
       <c r="B15" s="14" t="inlineStr">
         <is>
@@ -861,9 +861,15 @@
       <c r="F15" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="16" t="n"/>
-      <c r="I15" s="16" t="n"/>
+      <c r="G15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="22" t="n">

--- a/mediii.xlsx
+++ b/mediii.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="17" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B3" s="14" t="inlineStr">
         <is>
@@ -635,6 +635,24 @@
       </c>
       <c r="P3" t="n">
         <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
